--- a/biology/Zoologie/Élénie_de_Gaimard/Élénie_de_Gaimard.xlsx
+++ b/biology/Zoologie/Élénie_de_Gaimard/Élénie_de_Gaimard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9nie_de_Gaimard</t>
+          <t>Élénie_de_Gaimard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Myiopagis gaimardii
-L'Élénie de Gaimard (Myiopagis gaimardii) est une espèce de passereau de la famille des Tyrannidae[1],[2]. Le nom de l'espèce rend hommage à Joseph Paul Gaimard (1793 - 1858), un médecin et naturaliste français.
+L'Élénie de Gaimard (Myiopagis gaimardii) est une espèce de passereau de la famille des Tyrannidae,. Le nom de l'espèce rend hommage à Joseph Paul Gaimard (1793 - 1858), un médecin et naturaliste français.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9nie_de_Gaimard</t>
+          <t>Élénie_de_Gaimard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,17 @@
           <t>Systématique et distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau est représenté par cinq sous-espèces selon la classification de référence du Congrès ornithologique international  (version 9.1, 2019)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau est représenté par cinq sous-espèces selon la classification de référence du Congrès ornithologique international  (version 9.1, 2019) :
 Myiopagis gaimardii macilvainii (Lawrence, 1871) : régions tropicales de l'est du Panama et côte caribéenne de la Colombie ;
 Myiopagis gaimardii bogotensis (von Berlepsch, 1907) : régions tropicales du nord-est de la Colombie et du nord du Venezuela ;
 Myiopagis gaimardii trinitatis (Hartert &amp; Goodson, 1917) : Trinidad ;
 Myiopagis gaimardii guianensis (von Berlepsch, 1907) : est de la Colombie, sud du Venezuela, Guyanes, nord de l'Amazonie brésilienne et nord-est du Pérou ;
-Myiopagis gaimardii gaimardii (d'Orbigny, 1840) : régions tropicales, du sud de l'Équateur à l'est du Pérou, au nord de la Bolivie et au sud-ouest et à l'est du Brésil[1],[2],[4].
-La sous-espèce M. g. subcinerea, depuis les travaux de John W. Fitzpatrick publiés en 2004, est considérée comme identique à la sous-espèce nominale M. g. gaimardii[1].
+Myiopagis gaimardii gaimardii (d'Orbigny, 1840) : régions tropicales, du sud de l'Équateur à l'est du Pérou, au nord de la Bolivie et au sud-ouest et à l'est du Brésil.
+La sous-espèce M. g. subcinerea, depuis les travaux de John W. Fitzpatrick publiés en 2004, est considérée comme identique à la sous-espèce nominale M. g. gaimardii.
 </t>
         </is>
       </c>
